--- a/data.xlsx
+++ b/data.xlsx
@@ -47,6 +47,18 @@
     <t xml:space="preserve">Motivos Contractuales 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Estado Contractual 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivos Contractuales 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Contractual 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivos Contractuales 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">VICTOR FERMIN</t>
   </si>
   <si>
@@ -63,6 +75,9 @@
  -Declaración de Salud Ocupacional: Estado Rechazado</t>
   </si>
   <si>
+    <t xml:space="preserve">Aprobado</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nahuel Alejandro</t>
   </si>
   <si>
@@ -70,6 +85,20 @@
   </si>
   <si>
     <t xml:space="preserve">41528620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechazado 5400150734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ -Capacitación de Seguridad de acuerdo a las tareas a realizar: incompleto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechazado 5400149156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ -Constancia de entrega de ropa de trabajo y Elementos de protección personal: documentación vencida</t>
   </si>
   <si>
     <t xml:space="preserve">VICTOR HUGO</t>
@@ -99,6 +128,21 @@
  -Recibo de sueldo: Documento fuera de vigencia.</t>
   </si>
   <si>
+    <t xml:space="preserve">
+ -Formulario de ingreso número : No presenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechazado 5400145365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ -Formulario de ingreso número 25002: Formulario de ingreso vencido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ -Formulario de ingreso número 3110: Formulario de ingreso vencido</t>
+  </si>
+  <si>
     <t xml:space="preserve">JUAN MANUEL</t>
   </si>
   <si>
@@ -115,6 +159,11 @@
   </si>
   <si>
     <t xml:space="preserve">33046012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ -Registro de conducir: Documento fuera de vigencia.
+ -Recibo de sueldo: Documento fuera de vigencia.</t>
   </si>
   <si>
     <t xml:space="preserve">MARCELA ALEJANDRA</t>
@@ -225,19 +274,6 @@
   </si>
   <si>
     <t xml:space="preserve">35028086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL HUGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZANABRIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26289299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- -Declaración de Salud Ocupacional: Documento fuera de vigencia.</t>
   </si>
   <si>
     <t xml:space="preserve">BRIAN FRANCO NAHUEL</t>
@@ -436,6 +472,24 @@
   </si>
   <si>
     <t xml:space="preserve">28836529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ -Formulario de ingreso número 10622: Formulario de ingreso vencido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechazado 5400153057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ -Formulario de ingreso número 36022: Formulario de ingreso vencido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechazado 5400156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ -Formulario de ingreso número 5919: Formulario de ingreso vencido</t>
   </si>
   <si>
     <t xml:space="preserve">ERAZU</t>
@@ -1035,1137 +1089,1429 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>115</v>
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" t="s">
+        <v>144</v>
+      </c>
+      <c r="J41" t="s">
+        <v>145</v>
+      </c>
+      <c r="K41" t="s">
+        <v>146</v>
+      </c>
+      <c r="L41" t="s">
+        <v>147</v>
+      </c>
+      <c r="M41" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>150</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>160</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>177</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>194</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>179</v>
+        <v>31</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>214</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B65" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>199</v>
+        <v>218</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" t="s">
-        <v>203</v>
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>223</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" t="s">
-        <v>212</v>
-      </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" t="s">
-        <v>213</v>
+        <v>228</v>
+      </c>
+      <c r="F68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -91,14 +91,7 @@
   </si>
   <si>
     <t xml:space="preserve">
- -Capacitación de Seguridad de acuerdo a las tareas a realizar: incompleto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechazado 5400149156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- -Constancia de entrega de ropa de trabajo y Elementos de protección personal: documentación vencida</t>
+ -Capacitación de Seguridad de acuerdo a las tareas a realizar: pendiente</t>
   </si>
   <si>
     <t xml:space="preserve">VICTOR HUGO</t>
@@ -139,10 +132,6 @@
  -Formulario de ingreso número 25002: Formulario de ingreso vencido</t>
   </si>
   <si>
-    <t xml:space="preserve">
- -Formulario de ingreso número 3110: Formulario de ingreso vencido</t>
-  </si>
-  <si>
     <t xml:space="preserve">JUAN MANUEL</t>
   </si>
   <si>
@@ -223,6 +212,10 @@
   </si>
   <si>
     <t xml:space="preserve">39400179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ -Constancia de entrega de ropa de trabajo y Elementos de protección personal: documentación vencida</t>
   </si>
   <si>
     <t xml:space="preserve">NICOLAS ALEX</t>
@@ -418,6 +411,10 @@
  -Declaración de Salud Ocupacional: Estado Rechazado
  -Recibo de sueldo: No presenta
  -Constancia de alta/baja temprana: No presenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ -Capacitación de Seguridad de acuerdo a las tareas a realizar: incompleto</t>
   </si>
   <si>
     <t xml:space="preserve">CELSO DAVID</t>
@@ -743,6 +740,470 @@
   <si>
     <t xml:space="preserve">
  -Recibo de sueldo: No presenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angel Ismael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lozano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39369835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ -Declaración de Salud Ocupacional: Estado Pendiente de revisión
+ -Documentación personal: Estado Rechazado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Rodolfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batallanes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23243835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARÍA PAULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34244091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL HECTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36047806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS NICOLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37510734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DURAN LOAYZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">92709063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALTER EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAZARO ARMELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94325426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERIC ENRIQUE FABRICIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEUFELD GALLARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39360618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABALOS CARDOZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38212022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMANUEL NICOLAS DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILISQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39537588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOEL ALEXIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARQUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42606962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAHUEL HECTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24949286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMANUEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32687791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRISTIAN ARIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRANDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40328367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS FERNANDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMANI CONDORI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39893593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL HUGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZANABRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26289299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN HUMBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39892478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25122811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUSTAVO ARIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REYES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40788326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAIAN EZEQUIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41218837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Sebastian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llampa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31097297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDO RENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25254935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAUL CRISTIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38508657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDO JONATAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42019493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO LUCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABRERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28262181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEONARDO FIDEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREYRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34091362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUSTAVO DAMIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43549880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEO GABRIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAÑOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39896042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUILLERMO MACIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35929386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JONATHAN MARCOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32411811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDO ARIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25685271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE MATIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39004145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONELLA ALEXIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEBALLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39624196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN ENRIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUEDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39198588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTON AGUSTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARANCIBIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44697052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEONARDO MATIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29693285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACOSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33354377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUILLERMO CESAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTEGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29436964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42131048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Gustavo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rueda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42552008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan Lautaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuevas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42080773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Nahuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41445394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hector Rolando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calisaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40325568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudio Rafael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bustamante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35262648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaston Ariel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anachuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41547905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Rodrigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guantay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39363285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignacio Oscar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alonso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35044311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Angel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taboada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35281844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clemente Paulino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21581300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roció Ester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39781997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Luis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32411645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Gustavo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39200824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octavio Augusto Misael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39988405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramiro Andres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38274089</t>
   </si>
 </sst>
 </file>
@@ -758,6 +1219,253 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills>
     <fill>
@@ -766,8 +1474,2972 @@
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -781,6 +4453,253 @@
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="3" borderId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="4" borderId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="4" fillId="5" borderId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="9" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="14" fillId="15" borderId="14" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="15" fillId="16" borderId="15" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="16" fillId="17" borderId="16" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="20" fillId="21" borderId="20" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="21" fillId="22" borderId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="22" fillId="23" borderId="22" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="26" fillId="27" borderId="26" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="27" fillId="28" borderId="27" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="28" fillId="29" borderId="28" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="32" fillId="33" borderId="32" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="33" fillId="34" borderId="33" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="34" fillId="35" borderId="34" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="35" fillId="36" borderId="35" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="38" fillId="39" borderId="38" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="39" fillId="40" borderId="39" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="40" fillId="41" borderId="40" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="41" fillId="42" borderId="41" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="44" fillId="45" borderId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="45" fillId="46" borderId="45" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="46" fillId="47" borderId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="47" fillId="48" borderId="47" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="49" fillId="50" borderId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="50" fillId="51" borderId="50" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="51" fillId="52" borderId="51" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="52" fillId="53" borderId="52" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="53" fillId="54" borderId="53" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="55" fillId="56" borderId="55" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="56" fillId="57" borderId="56" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="57" fillId="58" borderId="57" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="58" fillId="59" borderId="58" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="59" fillId="60" borderId="59" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="61" fillId="62" borderId="61" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="62" fillId="63" borderId="62" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="63" fillId="64" borderId="63" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="64" fillId="65" borderId="64" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="65" fillId="66" borderId="65" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="67" fillId="68" borderId="67" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="68" fillId="69" borderId="68" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="69" fillId="70" borderId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="70" fillId="71" borderId="70" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="71" fillId="72" borderId="71" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="73" fillId="74" borderId="73" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="74" fillId="75" borderId="74" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="75" fillId="76" borderId="75" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="76" fillId="77" borderId="76" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="77" fillId="78" borderId="77" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="79" fillId="80" borderId="79" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="80" fillId="81" borderId="80" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="81" fillId="82" borderId="81" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="82" fillId="83" borderId="82" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="83" fillId="84" borderId="83" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="85" fillId="86" borderId="85" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="86" fillId="87" borderId="86" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="87" fillId="88" borderId="87" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="88" fillId="89" borderId="88" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="89" fillId="90" borderId="89" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="91" fillId="92" borderId="91" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="92" fillId="93" borderId="92" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="93" fillId="94" borderId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="94" fillId="95" borderId="94" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="95" fillId="96" borderId="95" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="97" fillId="98" borderId="97" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="98" fillId="99" borderId="98" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="99" fillId="100" borderId="99" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="100" fillId="101" borderId="100" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="101" fillId="102" borderId="101" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="103" fillId="104" borderId="103" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="104" fillId="105" borderId="104" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="105" fillId="106" borderId="105" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="106" fillId="107" borderId="106" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="107" fillId="108" borderId="107" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="109" fillId="110" borderId="109" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="110" fillId="111" borderId="110" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="111" fillId="112" borderId="111" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="112" fillId="113" borderId="112" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="113" fillId="114" borderId="113" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="115" fillId="116" borderId="115" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="116" fillId="117" borderId="116" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="117" fillId="118" borderId="117" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="118" fillId="119" borderId="118" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="119" fillId="120" borderId="119" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="121" fillId="122" borderId="121" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="122" fillId="123" borderId="122" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="123" fillId="124" borderId="123" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="124" fillId="125" borderId="124" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="125" fillId="126" borderId="125" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="127" fillId="128" borderId="127" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="128" fillId="129" borderId="128" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="129" fillId="130" borderId="129" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="130" fillId="131" borderId="130" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="131" fillId="132" borderId="131" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="133" fillId="134" borderId="133" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="134" fillId="135" borderId="134" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="135" fillId="136" borderId="135" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="136" fillId="137" borderId="136" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="137" fillId="138" borderId="137" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="139" fillId="140" borderId="139" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="140" fillId="141" borderId="140" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="141" fillId="142" borderId="141" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="142" fillId="143" borderId="142" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="143" fillId="144" borderId="143" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="145" fillId="146" borderId="145" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="146" fillId="147" borderId="146" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="147" fillId="148" borderId="147" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="148" fillId="149" borderId="148" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="149" fillId="150" borderId="149" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="151" fillId="152" borderId="151" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="152" fillId="153" borderId="152" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="153" fillId="154" borderId="153" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="154" fillId="155" borderId="154" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="155" fillId="156" borderId="155" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="156" fillId="157" borderId="156" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="157" fillId="158" borderId="157" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="158" fillId="159" borderId="158" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="159" fillId="160" borderId="159" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="160" fillId="161" borderId="160" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="161" fillId="162" borderId="161" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="162" fillId="163" borderId="162" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="163" fillId="164" borderId="163" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="164" fillId="165" borderId="164" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="165" fillId="166" borderId="165" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="166" fillId="167" borderId="166" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="167" fillId="168" borderId="167" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="168" fillId="169" borderId="168" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="169" fillId="170" borderId="169" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="170" fillId="171" borderId="170" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="171" fillId="172" borderId="171" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="172" fillId="173" borderId="172" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="173" fillId="174" borderId="173" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="174" fillId="175" borderId="174" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="175" fillId="176" borderId="175" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="176" fillId="177" borderId="176" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="177" fillId="178" borderId="177" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="178" fillId="179" borderId="178" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="179" fillId="180" borderId="179" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="180" fillId="181" borderId="180" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="181" fillId="182" borderId="181" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="182" fillId="183" borderId="182" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="183" fillId="184" borderId="183" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="184" fillId="185" borderId="184" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="185" fillId="186" borderId="185" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="186" fillId="187" borderId="186" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="187" fillId="188" borderId="187" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="188" fillId="189" borderId="188" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="189" fillId="190" borderId="189" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="190" fillId="191" borderId="190" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="191" fillId="192" borderId="191" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="192" fillId="193" borderId="192" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="193" fillId="194" borderId="193" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="194" fillId="195" borderId="194" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="195" fillId="196" borderId="195" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="196" fillId="197" borderId="196" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="197" fillId="198" borderId="197" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="198" fillId="199" borderId="198" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="199" fillId="200" borderId="199" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="200" fillId="201" borderId="200" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="201" fillId="202" borderId="201" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="202" fillId="203" borderId="202" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="203" fillId="204" borderId="203" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="205" fillId="206" borderId="205" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="206" fillId="207" borderId="206" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="207" fillId="208" borderId="207" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="208" fillId="209" borderId="208" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="209" fillId="210" borderId="209" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="211" fillId="212" borderId="211" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="212" fillId="213" borderId="212" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="213" fillId="214" borderId="213" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="214" fillId="215" borderId="214" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="215" fillId="216" borderId="215" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="217" fillId="218" borderId="217" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="218" fillId="219" borderId="218" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="219" fillId="220" borderId="219" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="220" fillId="221" borderId="220" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="221" fillId="222" borderId="221" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="223" fillId="224" borderId="223" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="224" fillId="225" borderId="224" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="225" fillId="226" borderId="225" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="226" fillId="227" borderId="226" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="227" fillId="228" borderId="227" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="228" fillId="229" borderId="228" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="229" fillId="230" borderId="229" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="230" fillId="231" borderId="230" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="231" fillId="232" borderId="231" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="232" fillId="233" borderId="232" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="233" fillId="234" borderId="233" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="234" fillId="235" borderId="234" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="235" fillId="236" borderId="235" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="236" fillId="237" borderId="236" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="237" fillId="238" borderId="237" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="238" fillId="239" borderId="238" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="239" fillId="240" borderId="239" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="240" fillId="241" borderId="240" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="241" fillId="242" borderId="241" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="242" fillId="243" borderId="242" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="243" fillId="244" borderId="243" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="244" fillId="245" borderId="244" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="245" fillId="246" borderId="245" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="246" fillId="247" borderId="246" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="247" fillId="248" borderId="247" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,13 +5031,13 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="1">
         <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="2">
         <v>16</v>
       </c>
     </row>
@@ -1132,709 +5051,700 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s" s="4">
         <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s" s="10">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="13">
         <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s" s="14">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s" s="15">
         <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s" s="16">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s" s="17">
         <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s" s="18">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="21">
         <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s" s="22">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s" s="23">
         <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
+      <c r="H13" t="s" s="26">
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="27">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s" s="28">
         <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="29">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s" s="30">
         <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s" s="31">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s" s="32">
         <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="33">
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s" s="34">
         <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="35">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s" s="36">
         <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
         <v>76</v>
       </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="37">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s" s="38">
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="39">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s" s="40">
         <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="41">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s" s="42">
         <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="43">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s" s="44">
         <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s" s="45">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="F23" t="s" s="46">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
         <v>90</v>
       </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="47">
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s" s="48">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="49">
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s" s="50">
         <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s" s="51">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s" s="52">
         <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
         <v>98</v>
       </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="53">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s" s="54">
         <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
         <v>101</v>
       </c>
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="55">
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s" s="56">
         <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
         <v>104</v>
       </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="57">
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s" s="58">
         <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
         <v>107</v>
       </c>
-      <c r="B30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="59">
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s" s="60">
         <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
         <v>110</v>
       </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="61">
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s" s="62">
         <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
         <v>113</v>
       </c>
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="63">
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s" s="64">
         <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
         <v>116</v>
       </c>
-      <c r="B33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="65">
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s" s="66">
         <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
         <v>119</v>
       </c>
-      <c r="B34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="67">
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s" s="68">
         <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
         <v>122</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s" s="69">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
         <v>123</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s" s="70">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
         <v>124</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
         <v>126</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>127</v>
       </c>
-      <c r="C36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="D36" t="s" s="71">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s" s="72">
         <v>20</v>
       </c>
       <c r="G36" t="s">
@@ -1843,199 +5753,199 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
         <v>129</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>130</v>
       </c>
-      <c r="C37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="73">
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s" s="74">
         <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
         <v>132</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>133</v>
       </c>
-      <c r="C38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="75">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s" s="76">
         <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
         <v>135</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="77">
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s" s="78">
         <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
         <v>138</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>139</v>
       </c>
-      <c r="C40" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="79">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s" s="80">
         <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
         <v>141</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>142</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s" s="81">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s" s="82">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s" s="83">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s">
         <v>143</v>
       </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s" s="84">
         <v>144</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>145</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s" s="85">
         <v>146</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>147</v>
-      </c>
-      <c r="M41" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
         <v>149</v>
       </c>
-      <c r="C42" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="86">
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s" s="87">
         <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" t="s">
         <v>151</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>152</v>
       </c>
-      <c r="C43" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="88">
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s" s="89">
         <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
         <v>154</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>155</v>
       </c>
-      <c r="C44" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="90">
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s" s="91">
         <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" t="s">
         <v>157</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>158</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s" s="92">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
         <v>159</v>
       </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>160</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="93">
         <v>20</v>
       </c>
       <c r="G45" t="s">
@@ -2044,424 +5954,424 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
         <v>161</v>
       </c>
-      <c r="B46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="94">
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s" s="95">
         <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
         <v>163</v>
       </c>
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="96">
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" t="s" s="97">
         <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" t="s">
         <v>165</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>166</v>
       </c>
-      <c r="C48" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="98">
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s" s="99">
         <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" t="s">
         <v>168</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>169</v>
       </c>
-      <c r="C49" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="100">
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s" s="101">
         <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" t="s">
         <v>171</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>172</v>
       </c>
-      <c r="C50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="102">
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s" s="103">
         <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" t="s">
         <v>174</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>175</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s" s="104">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
         <v>176</v>
       </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>177</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="105">
         <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" t="s">
         <v>178</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>179</v>
       </c>
-      <c r="C52" t="s">
-        <v>180</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="D52" t="s" s="106">
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s" s="107">
         <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
         <v>181</v>
       </c>
-      <c r="B53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="108">
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s" s="109">
         <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" t="s">
         <v>183</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>184</v>
       </c>
-      <c r="C54" t="s">
-        <v>185</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="110">
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" t="s" s="111">
         <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
         <v>186</v>
       </c>
-      <c r="B55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="112">
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s" s="113">
         <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" t="s">
         <v>188</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>189</v>
       </c>
-      <c r="C56" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="114">
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s" s="115">
         <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" t="s">
         <v>191</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>192</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s" s="116">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
         <v>193</v>
       </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s">
-        <v>194</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="F57" t="s" s="117">
         <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" t="s">
         <v>195</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>196</v>
       </c>
-      <c r="C58" t="s">
-        <v>197</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="D58" t="s" s="118">
         <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s" s="119">
         <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" t="s">
         <v>198</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>199</v>
       </c>
-      <c r="C59" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="D59" t="s" s="120">
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" t="s" s="121">
         <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" t="s">
         <v>201</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>202</v>
       </c>
-      <c r="C60" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="D60" t="s" s="122">
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s" s="123">
         <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
         <v>204</v>
       </c>
-      <c r="B61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" t="s">
-        <v>205</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="124">
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s" s="125">
         <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
         <v>206</v>
       </c>
-      <c r="B62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="D62" t="s" s="126">
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" t="s" s="127">
         <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" t="s">
         <v>208</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>209</v>
       </c>
-      <c r="C63" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="D63" t="s" s="128">
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
-      </c>
-      <c r="F63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" t="s" s="129">
         <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" t="s">
         <v>211</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>212</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s" s="130">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
         <v>213</v>
       </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
-        <v>214</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="131">
         <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" t="s">
         <v>215</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>216</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s" s="132">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
         <v>217</v>
       </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s">
-        <v>218</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="133">
         <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" t="s" s="134">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s" s="135">
         <v>20</v>
       </c>
       <c r="G66" t="s">
@@ -2470,21 +6380,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
         <v>221</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>222</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s" s="136">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
         <v>223</v>
       </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>224</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="137">
         <v>20</v>
       </c>
       <c r="G67" t="s">
@@ -2493,25 +6403,949 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" t="s">
         <v>225</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>226</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s" s="138">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
         <v>227</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s" s="139">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" t="s" s="140">
         <v>14</v>
       </c>
-      <c r="E68" t="s">
-        <v>228</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="E69" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69" t="s" s="141">
         <v>20</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" t="s">
+        <v>233</v>
+      </c>
+      <c r="C70" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" t="s" s="142">
+        <v>16</v>
+      </c>
+      <c r="F70" t="s" s="143">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>235</v>
+      </c>
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" t="s" s="144">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s" s="145">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" t="s" s="146">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s" s="147">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" t="s">
+        <v>241</v>
+      </c>
+      <c r="D73" t="s" s="148">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s" s="149">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>242</v>
+      </c>
+      <c r="B74" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" t="s" s="150">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s" s="151">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>245</v>
+      </c>
+      <c r="B75" t="s">
+        <v>246</v>
+      </c>
+      <c r="C75" t="s">
+        <v>247</v>
+      </c>
+      <c r="D75" t="s" s="152">
+        <v>16</v>
+      </c>
+      <c r="F75" t="s" s="153">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76" t="s">
+        <v>250</v>
+      </c>
+      <c r="D76" t="s" s="154">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s" s="155">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" t="s">
+        <v>253</v>
+      </c>
+      <c r="D77" t="s" s="156">
+        <v>16</v>
+      </c>
+      <c r="F77" t="s" s="157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" t="s" s="158">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s" s="159">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" t="s">
+        <v>259</v>
+      </c>
+      <c r="D79" t="s" s="160">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s" s="161">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>260</v>
+      </c>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" t="s" s="162">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s" s="163">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>262</v>
+      </c>
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" t="s" s="164">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s" s="165">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>264</v>
+      </c>
+      <c r="B82" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D82" t="s" s="166">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s" s="167">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>267</v>
+      </c>
+      <c r="B83" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" t="s" s="168">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s" s="169">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>270</v>
+      </c>
+      <c r="B84" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" t="s">
+        <v>272</v>
+      </c>
+      <c r="D84" t="s" s="170">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s" s="171">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>273</v>
+      </c>
+      <c r="B85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" t="s">
+        <v>275</v>
+      </c>
+      <c r="D85" t="s" s="172">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s" s="173">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>276</v>
+      </c>
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" t="s" s="174">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s" s="175">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" t="s">
+        <v>279</v>
+      </c>
+      <c r="C87" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" t="s" s="176">
+        <v>16</v>
+      </c>
+      <c r="F87" t="s" s="177">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>281</v>
+      </c>
+      <c r="B88" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" t="s" s="178">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s" s="179">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>284</v>
+      </c>
+      <c r="B89" t="s">
+        <v>285</v>
+      </c>
+      <c r="C89" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" t="s" s="180">
+        <v>16</v>
+      </c>
+      <c r="F89" t="s" s="181">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>287</v>
+      </c>
+      <c r="B90" t="s">
+        <v>288</v>
+      </c>
+      <c r="C90" t="s">
+        <v>289</v>
+      </c>
+      <c r="D90" t="s" s="182">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s" s="183">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B91" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" t="s">
+        <v>291</v>
+      </c>
+      <c r="D91" t="s" s="184">
+        <v>16</v>
+      </c>
+      <c r="F91" t="s" s="185">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>292</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>293</v>
+      </c>
+      <c r="D92" t="s" s="186">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s" s="187">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" t="s">
+        <v>296</v>
+      </c>
+      <c r="D93" t="s" s="188">
+        <v>16</v>
+      </c>
+      <c r="F93" t="s" s="189">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" t="s">
+        <v>299</v>
+      </c>
+      <c r="D94" t="s" s="190">
+        <v>16</v>
+      </c>
+      <c r="F94" t="s" s="191">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" t="s">
+        <v>302</v>
+      </c>
+      <c r="D95" t="s" s="192">
+        <v>16</v>
+      </c>
+      <c r="F95" t="s" s="193">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" t="s">
+        <v>305</v>
+      </c>
+      <c r="D96" t="s" s="194">
+        <v>16</v>
+      </c>
+      <c r="F96" t="s" s="195">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>306</v>
+      </c>
+      <c r="B97" t="s">
+        <v>307</v>
+      </c>
+      <c r="C97" t="s">
+        <v>308</v>
+      </c>
+      <c r="D97" t="s" s="196">
+        <v>16</v>
+      </c>
+      <c r="F97" t="s" s="197">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>309</v>
+      </c>
+      <c r="B98" t="s">
+        <v>310</v>
+      </c>
+      <c r="C98" t="s">
+        <v>311</v>
+      </c>
+      <c r="D98" t="s" s="198">
+        <v>16</v>
+      </c>
+      <c r="F98" t="s" s="199">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>312</v>
+      </c>
+      <c r="B99" t="s">
+        <v>313</v>
+      </c>
+      <c r="C99" t="s">
+        <v>314</v>
+      </c>
+      <c r="D99" t="s" s="200">
+        <v>16</v>
+      </c>
+      <c r="F99" t="s" s="201">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>315</v>
+      </c>
+      <c r="B100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" t="s" s="202">
+        <v>16</v>
+      </c>
+      <c r="F100" t="s" s="203">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>317</v>
+      </c>
+      <c r="B101" t="s">
+        <v>318</v>
+      </c>
+      <c r="C101" t="s">
+        <v>319</v>
+      </c>
+      <c r="D101" t="s" s="204">
+        <v>16</v>
+      </c>
+      <c r="F101" t="s" s="205">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>320</v>
+      </c>
+      <c r="B102" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102" t="s">
+        <v>322</v>
+      </c>
+      <c r="D102" t="s" s="206">
+        <v>16</v>
+      </c>
+      <c r="F102" t="s" s="207">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>323</v>
+      </c>
+      <c r="B103" t="s">
+        <v>324</v>
+      </c>
+      <c r="C103" t="s">
+        <v>325</v>
+      </c>
+      <c r="D103" t="s" s="208">
+        <v>16</v>
+      </c>
+      <c r="F103" t="s" s="209">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>326</v>
+      </c>
+      <c r="B104" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" t="s">
+        <v>327</v>
+      </c>
+      <c r="D104" t="s" s="210">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s" s="211">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>328</v>
+      </c>
+      <c r="B105" t="s">
+        <v>329</v>
+      </c>
+      <c r="C105" t="s">
+        <v>330</v>
+      </c>
+      <c r="D105" t="s" s="212">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s" s="213">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>331</v>
+      </c>
+      <c r="B106" t="s">
+        <v>332</v>
+      </c>
+      <c r="C106" t="s">
+        <v>333</v>
+      </c>
+      <c r="D106" t="s" s="214">
+        <v>16</v>
+      </c>
+      <c r="F106" t="s" s="215">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>334</v>
+      </c>
+      <c r="B107" t="s">
+        <v>335</v>
+      </c>
+      <c r="C107" t="s">
+        <v>336</v>
+      </c>
+      <c r="D107" t="s" s="216">
+        <v>16</v>
+      </c>
+      <c r="F107" t="s" s="217">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>337</v>
+      </c>
+      <c r="B108" t="s">
+        <v>338</v>
+      </c>
+      <c r="C108" t="s">
+        <v>339</v>
+      </c>
+      <c r="D108" t="s" s="218">
+        <v>16</v>
+      </c>
+      <c r="F108" t="s" s="219">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>340</v>
+      </c>
+      <c r="B109" t="s">
+        <v>341</v>
+      </c>
+      <c r="C109" t="s">
+        <v>342</v>
+      </c>
+      <c r="D109" t="s" s="220">
+        <v>16</v>
+      </c>
+      <c r="F109" t="s" s="221">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>343</v>
+      </c>
+      <c r="B110" t="s">
+        <v>344</v>
+      </c>
+      <c r="C110" t="s">
+        <v>345</v>
+      </c>
+      <c r="D110" t="s" s="222">
+        <v>16</v>
+      </c>
+      <c r="F110" t="s" s="223">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>346</v>
+      </c>
+      <c r="B111" t="s">
+        <v>347</v>
+      </c>
+      <c r="C111" t="s">
+        <v>348</v>
+      </c>
+      <c r="D111" t="s" s="224">
+        <v>16</v>
+      </c>
+      <c r="F111" t="s" s="225">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>349</v>
+      </c>
+      <c r="B112" t="s">
+        <v>350</v>
+      </c>
+      <c r="C112" t="s">
+        <v>351</v>
+      </c>
+      <c r="D112" t="s" s="226">
+        <v>16</v>
+      </c>
+      <c r="F112" t="s" s="227">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>352</v>
+      </c>
+      <c r="B113" t="s">
+        <v>353</v>
+      </c>
+      <c r="C113" t="s">
+        <v>354</v>
+      </c>
+      <c r="D113" t="s" s="228">
+        <v>16</v>
+      </c>
+      <c r="F113" t="s" s="229">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>355</v>
+      </c>
+      <c r="B114" t="s">
+        <v>356</v>
+      </c>
+      <c r="C114" t="s">
+        <v>357</v>
+      </c>
+      <c r="D114" t="s" s="230">
+        <v>16</v>
+      </c>
+      <c r="F114" t="s" s="231">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>358</v>
+      </c>
+      <c r="B115" t="s">
+        <v>359</v>
+      </c>
+      <c r="C115" t="s">
+        <v>360</v>
+      </c>
+      <c r="D115" t="s" s="232">
+        <v>16</v>
+      </c>
+      <c r="F115" t="s" s="233">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>361</v>
+      </c>
+      <c r="B116" t="s">
+        <v>362</v>
+      </c>
+      <c r="C116" t="s">
+        <v>363</v>
+      </c>
+      <c r="D116" t="s" s="234">
+        <v>16</v>
+      </c>
+      <c r="F116" t="s" s="235">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>364</v>
+      </c>
+      <c r="B117" t="s">
+        <v>365</v>
+      </c>
+      <c r="C117" t="s">
+        <v>366</v>
+      </c>
+      <c r="D117" t="s" s="236">
+        <v>16</v>
+      </c>
+      <c r="F117" t="s" s="237">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>367</v>
+      </c>
+      <c r="B118" t="s">
+        <v>368</v>
+      </c>
+      <c r="C118" t="s">
+        <v>369</v>
+      </c>
+      <c r="D118" t="s" s="238">
+        <v>16</v>
+      </c>
+      <c r="F118" t="s" s="239">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>370</v>
+      </c>
+      <c r="B119" t="s">
+        <v>371</v>
+      </c>
+      <c r="C119" t="s">
+        <v>372</v>
+      </c>
+      <c r="D119" t="s" s="240">
+        <v>16</v>
+      </c>
+      <c r="F119" t="s" s="241">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>373</v>
+      </c>
+      <c r="B120" t="s">
+        <v>374</v>
+      </c>
+      <c r="C120" t="s">
+        <v>375</v>
+      </c>
+      <c r="D120" t="s" s="242">
+        <v>16</v>
+      </c>
+      <c r="F120" t="s" s="243">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>376</v>
+      </c>
+      <c r="B121" t="s">
+        <v>377</v>
+      </c>
+      <c r="C121" t="s">
+        <v>378</v>
+      </c>
+      <c r="D121" t="s" s="244">
+        <v>16</v>
+      </c>
+      <c r="F121" t="s" s="245">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>379</v>
+      </c>
+      <c r="B122" t="s">
+        <v>380</v>
+      </c>
+      <c r="C122" t="s">
+        <v>381</v>
+      </c>
+      <c r="D122" t="s" s="246">
+        <v>16</v>
+      </c>
+      <c r="F122" t="s" s="247">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
